--- a/副词.xlsx
+++ b/副词.xlsx
@@ -1,33 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDD15C4-933E-4F8E-9F65-1E3C4671AF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947C209C-7274-470A-A181-C98B23124F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="0" windowWidth="13332" windowHeight="13224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="接続（せつぞく）" sheetId="3" r:id="rId2"/>
-    <sheet name="～く" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="100">
   <si>
     <t>どても</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,54 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>はやく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早く、速く</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝早くから働く｜あさはやく　から　はたらく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>はたらく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>働く</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>つく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>着く</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>予定の時刻より10分早く着く</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>よて</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝｜あさ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早く｜はやく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>働く｜はたらく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,6 +456,295 @@
   </si>
   <si>
     <t>苗さんは日本語な上手で、まるで日本人のようだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少しも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこしも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しょうしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>稍微，一点点）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一点儿）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すべて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（全部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是非</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぜひ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一定）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（相当）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうれで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうなに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（那么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>样的…)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そう何寒くないです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没那么冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例えば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たとえば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（例如）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょくせつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詰り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>つまり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（即，也就是）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その難し仕事、詰りJava開発案件…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とくに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直ぐに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぐに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題が直ぐに解けない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一直）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかなか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非常[不容易]）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なかなか難しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べつべつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>，各自）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +795,47 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -565,11 +857,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -850,225 +1143,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1079,90 +1512,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDFF0D0E-3F19-4279-AA32-6C299C454BBF}">
-  <dimension ref="A2:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ABC8DB-9947-414C-8916-E34F395F1956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B91767-5A4D-4D69-986D-14C13BCCA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
-  <si>
-    <t>どても</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +262,323 @@
   </si>
   <si>
     <t>一般情况下…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のお陰で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>易忘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>并且）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>では</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確か</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たしか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必ず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かならず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>できるだげ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽可能…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>決して</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっして「けして」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すでに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とっても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（全部已经）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すると</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（少说也要…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少しなくても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さらに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あれほど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到什么样的程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どこまで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なるべく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清楚地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はっきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんとか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何とか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出来るだけ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げれど、げれども</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いつも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论何时，平常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すごく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凄く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（比…还要得多）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ずいぶん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過ぎる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぎる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过于…)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そうしたら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那样的话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それなのに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管那样…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいたい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幾らでも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论多少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それに</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +586,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +622,20 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -330,11 +657,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -615,271 +943,582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B24" sqref="B15:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>18</v>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B91767-5A4D-4D69-986D-14C13BCCA238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013979E-58AA-4533-BB96-24C196411C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,12 +581,36 @@
     <t>それに</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仍然）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢っ張り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やばり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -635,6 +659,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -943,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B15:B24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1222,112 +1253,123 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1342,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B013979E-58AA-4533-BB96-24C196411C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD363F-5206-4836-8C93-FEC419A56CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,6 +603,34 @@
   </si>
   <si>
     <t>やばり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だいぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すこしなく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てたまらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てならない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形+てしがたがない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまる</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1024,6 +1052,9 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1071,108 +1102,108 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -1180,196 +1211,225 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1385,7 +1445,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CD363F-5206-4836-8C93-FEC419A56CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B7A03-EF4F-4445-B0D4-39FDD8AF0A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +631,30 @@
   </si>
   <si>
     <t>たまる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほとんど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殆ど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほど</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>くらい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1373,63 +1397,87 @@
         <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-      <c r="C56" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
     </row>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B7A03-EF4F-4445-B0D4-39FDD8AF0A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C1A2E-27F6-4C3F-939A-DF5C39D0D652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,6 +655,54 @@
   </si>
   <si>
     <t>程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（完全）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いよいよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（越来越）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いくら何でも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>およそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凡そ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おおよそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大凡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>却って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かえって</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1068,416 +1116,451 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>131</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-    </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1490,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1525,148 +1608,165 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
     </row>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7C1A2E-27F6-4C3F-939A-DF5C39D0D652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006980C1-DC70-4D92-9EDF-FA2CABBD18CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="190">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,10 +196,6 @@
   </si>
   <si>
     <t>なかなか</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>それで</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -705,12 +701,231 @@
     <t>かえって</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>従って</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>したがって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（于是乎）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>それで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そこで</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>というのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何故なら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なぜなら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と言うのは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所が</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ところが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>また</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然も、而も</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又は</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼は政治家であり、また小説家でもある</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>および</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>及び</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この劇場「げきじょう」内で飲食、及び喫煙は禁止されている</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この靴は軽くて「かるい」、しかも、丈夫だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それとも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あるいは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或は</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>または</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もしくは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若しくは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すなわち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即ち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようするに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要するに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>而言之，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>件事不可信</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要するに、この話は信用できないということだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by the way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ところで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そう言えば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そういえば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それにしても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +982,19 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -788,12 +1016,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1089,7 +1319,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1108,10 +1338,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1119,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1132,21 +1362,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1161,7 +1391,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1182,69 +1412,69 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -1252,19 +1482,19 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -1277,13 +1507,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -1291,28 +1521,28 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -1320,39 +1550,39 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
@@ -1363,10 +1593,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1379,21 +1609,21 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1406,18 +1636,18 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
@@ -1436,16 +1666,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>26</v>
@@ -1461,58 +1691,58 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>8</v>
@@ -1536,7 +1766,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>15</v>
@@ -1547,7 +1777,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
@@ -1558,10 +1788,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1573,201 +1803,380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>151</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>155</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="1"/>
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="6"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B31" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="6"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="B47" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006980C1-DC70-4D92-9EDF-FA2CABBD18CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79AF183-2121-4FF6-B660-35AEA28132EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,6 +918,56 @@
   </si>
   <si>
     <t>それにしても</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不够的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足りない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たりない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>このごろずいぶん楽しそうだと思わない？</t>
+  </si>
+  <si>
+    <t>最近看起来不太开心啊。</t>
+  </si>
+  <si>
+    <t>除此之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのほか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しか～ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かもしれない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大概吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いちおう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一応</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1317,7 +1367,7 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1328,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1336,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>79</v>
       </c>
@@ -1344,7 +1394,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1402,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
@@ -1371,7 +1421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>104</v>
       </c>
@@ -1380,7 +1430,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1389,12 +1439,12 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>125</v>
       </c>
@@ -1418,15 +1468,21 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -1434,7 +1490,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>111</v>
       </c>
@@ -1445,7 +1501,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>128</v>
@@ -1664,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -1672,7 +1728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="1" t="s">
         <v>51</v>
@@ -1681,7 +1737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
@@ -1689,7 +1745,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -1700,97 +1756,132 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B55" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="2" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1803,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2179,6 +2270,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79AF183-2121-4FF6-B660-35AEA28132EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C9D088-9ED5-42D1-B08A-628CA28943BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,10 +204,6 @@
   </si>
   <si>
     <t>例如</t>
-  </si>
-  <si>
-    <t>以及，还有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>即，也就是</t>
@@ -300,22 +296,6 @@
   </si>
   <si>
     <t>その上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并且）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -968,6 +948,130 @@
   </si>
   <si>
     <t>一応</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それより</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老是…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっこう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当たり前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あたりまえ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理所应当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行き成り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いきなり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>突然）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お互いに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おたがいに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思わず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもわず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情不自禁地…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さっさと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（赶快）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しいんと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安静地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚精会神地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じっと考える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すっきり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简约地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1369,7 +1473,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -1388,10 +1492,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1399,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1412,21 +1516,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -1441,448 +1545,552 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" s="2" t="s">
+      <c r="C32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B67" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="2"/>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B56" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>92</v>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1894,10 +2102,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1908,42 +2116,42 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1951,12 +2159,12 @@
         <v>40</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -1968,59 +2176,59 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -2029,25 +2237,25 @@
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -2057,7 +2265,7 @@
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -2066,55 +2274,53 @@
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -2124,38 +2330,38 @@
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>172</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1"/>
     </row>
@@ -2166,116 +2372,123 @@
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
-      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>199</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C9D088-9ED5-42D1-B08A-628CA28943BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DE669-7E0C-4AB0-A74B-C4F0E1E24196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -781,10 +781,6 @@
   </si>
   <si>
     <t>それて</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1074,12 +1070,87 @@
     <t>简约地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ざっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その代わり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そのかわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终于）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>やっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とうとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終に、遂に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けっきょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぴったり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧密地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1220,14 @@
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1170,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1178,6 +1257,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1458,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1550,10 +1630,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -1588,10 +1668,10 @@
         <v>105</v>
       </c>
       <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
         <v>191</v>
-      </c>
-      <c r="E14" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -1694,10 +1774,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1735,362 +1815,378 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="2"/>
+      <c r="C40" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-    </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C66" s="1" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B68" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B67" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-    </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="2"/>
-    </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="C81" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>226</v>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2102,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2154,51 +2250,51 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>150</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
@@ -2206,255 +2302,258 @@
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B24" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B24" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="6"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>170</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>241</v>
+      </c>
       <c r="B31" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>184</v>
+      </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
@@ -2483,12 +2582,52 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A52" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DE669-7E0C-4AB0-A74B-C4F0E1E24196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDA22F4-D39B-4F2B-955A-15976ACA7A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="269">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,6 +1143,145 @@
   </si>
   <si>
     <t>或者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>がっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぐっすり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精疲力竭地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心灰意冷地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぎゃくに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（相反地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こっそり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悄悄地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（更加、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>越发、索性、干脆）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とにかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兎に角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なんとなく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何と無く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>总觉得…)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ますます</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まったく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もともと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漸く</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>終に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遂に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终于…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1538,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1615,578 +1754,668 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>261</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>190</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
-      <c r="B20"/>
+      <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>199</v>
+        <v>258</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B56" s="1" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B66" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B64" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B65" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
-        <v>195</v>
+        <v>262</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>188</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>8</v>
+        <v>210</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="2"/>
+      <c r="A75" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="B76" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
-        <v>54</v>
+        <v>187</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="2"/>
+        <v>188</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" s="2" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="2" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" s="1" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" s="2" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2198,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B33" sqref="B16:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2258,51 +2487,54 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>150</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -2310,323 +2542,350 @@
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B26" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>166</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="6"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>241</v>
-      </c>
       <c r="B31" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="6"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="6" t="s">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B35" s="6"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B38" s="6"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
         <v>181</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>197</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" s="7" t="s">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B53" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B55" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B56" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>237</v>
       </c>
     </row>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDA22F4-D39B-4F2B-955A-15976ACA7A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77195BCE-0B5A-444B-BC98-32F287D24D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6252" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="293">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,10 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紧密地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>或者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1282,6 +1278,106 @@
   </si>
   <si>
     <t>终于…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どちらも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两者都…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>わちゃわちゃ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ときどき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うろうろ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混乱地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确实地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严丝合缝地、合适地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きちんと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そっと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整洁地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ついでに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おもに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たまに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶に</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,10 +1773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1756,10 +1852,10 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1895,13 +1991,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1917,10 +2013,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>139</v>
@@ -2145,13 +2241,13 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -2159,7 +2255,7 @@
         <v>231</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -2167,7 +2263,7 @@
         <v>231</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -2187,235 +2283,334 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B68" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="2" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B76" s="1" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="5"/>
+      <c r="B77" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="2" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
-      <c r="B81" s="1" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="2"/>
-    </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>89</v>
+      <c r="A92" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" s="1" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B96" s="1" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>243</v>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2427,10 +2622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B33" sqref="B16:B33"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C50" sqref="B25:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2489,13 +2684,13 @@
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -2596,13 +2791,13 @@
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -2616,10 +2811,10 @@
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -2637,255 +2832,270 @@
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B33" s="6"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>169</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
       <c r="B35" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" s="6"/>
-      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="B39" s="6"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
         <v>181</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" s="1" t="s">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>84</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" s="7" t="s">
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B56" s="1" t="s">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B58" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B57" s="1" t="s">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>237</v>
       </c>
     </row>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77195BCE-0B5A-444B-BC98-32F287D24D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39657728-1E61-4282-9AC1-9CED2A1EFD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6252" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="311">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,32 +266,6 @@
   </si>
   <si>
     <t>のお陰で</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>易忘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>」</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1378,6 +1352,132 @@
   </si>
   <si>
     <t>偶に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たっぶり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充分地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確かり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>うっかり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不留神地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だけで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だけが</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>べつに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>別に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>好不容易</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せっかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺手，顺便）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何故ならば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なぜならば</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1773,10 +1873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="A67:B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1807,10 +1907,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1818,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1831,31 +1931,31 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1869,15 +1969,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1898,29 +1998,29 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
         <v>190</v>
-      </c>
-      <c r="E15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -1928,34 +2028,34 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -1975,10 +2075,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -1991,102 +2091,102 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -2094,7 +2194,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -2116,24 +2216,24 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -2150,10 +2250,10 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -2166,13 +2266,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -2180,28 +2280,28 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -2209,262 +2309,270 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B68" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B69" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+      <c r="D69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
+      <c r="B78" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" s="2" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="2" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="2"/>
-      <c r="B86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>268</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="2"/>
+      <c r="B91" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
@@ -2472,145 +2580,200 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="2"/>
+        <v>267</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>278</v>
+        <v>54</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="B102" s="1" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="2" t="s">
-        <v>244</v>
+      <c r="A104" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>241</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
-        <v>243</v>
+      <c r="A105" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="2"/>
+      <c r="A106" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="2" t="s">
-        <v>284</v>
+      <c r="A107" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>282</v>
+        <v>222</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
-        <v>249</v>
+      <c r="A108" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>271</v>
+        <v>241</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
         <v>272</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2622,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C50" sqref="B25:C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2636,467 +2799,479 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>152</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>152</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>113</v>
-      </c>
       <c r="B20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>256</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>141</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="6" t="s">
-        <v>119</v>
+      <c r="B29" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="6" t="s">
-        <v>167</v>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B35" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="6"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B38" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B33" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B34" s="6"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>240</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" s="6" t="s">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B40" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B38" s="6" t="s">
+      <c r="C40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="6"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" s="6"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+      <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>197</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="B57" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A59" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B58" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B59" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B61" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
         <v>237</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39657728-1E61-4282-9AC1-9CED2A1EFD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2E3A1D-65C0-4D1D-A8B6-CDFC95AC3BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="307">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1263,30 +1263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>わちゃわちゃ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ときどき</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>うろうろ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢慢地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有时候</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混乱地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>それも</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1478,6 +1454,14 @@
   </si>
   <si>
     <t>なぜならば</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びっくり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃惊地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1875,8 +1859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="A67:B109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2368,13 +2352,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -2403,7 +2387,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>121</v>
@@ -2420,7 +2404,7 @@
         <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -2480,18 +2464,18 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
@@ -2499,13 +2483,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
@@ -2513,24 +2497,24 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2638,13 +2622,13 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -2692,15 +2676,15 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>238</v>
@@ -2722,59 +2706,49 @@
         <v>241</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>281</v>
+      <c r="A113" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>282</v>
+      <c r="B116" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="A119" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2787,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2936,10 +2910,10 @@
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -3004,7 +2978,7 @@
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -3136,13 +3110,13 @@
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D45" s="1"/>
     </row>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2E3A1D-65C0-4D1D-A8B6-CDFC95AC3BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A80C3C-43A9-4202-A5AE-54850B4E9423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="309">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>せいで</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>のお陰で</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1096,10 +1092,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>終に、遂に</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>結局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1351,10 +1343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不留神地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>只要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1464,12 +1452,31 @@
     <t>吃惊地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ちっとも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心不在焉地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お陰で</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どれだけ</t>
+  </si>
+  <si>
+    <t>（多么地）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1547,6 +1554,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1568,7 +1582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1577,6 +1591,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1857,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:B119"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1891,10 +1906,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1902,7 +1917,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -1915,31 +1930,31 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -1953,15 +1968,15 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -1982,29 +1997,29 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" t="s">
         <v>189</v>
-      </c>
-      <c r="E15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>45</v>
@@ -2012,584 +2027,604 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="2" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
+      <c r="C44" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
       <c r="B52" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D64"/>
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B62" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>301</v>
-      </c>
+      <c r="D65"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D68"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
-        <v>273</v>
+      <c r="A69" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D69"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B70" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>272</v>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>258</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="B74" s="1" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B80" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="1" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="5"/>
+      <c r="B83" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="2" t="s">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="2" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="2"/>
-      <c r="B91" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>267</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2"/>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -2597,158 +2632,191 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" s="2"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>271</v>
+        <v>54</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>270</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="A103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
+      <c r="B108" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="2" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="B115" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="2"/>
+      <c r="B120" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2759,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C31" sqref="A23:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2773,479 +2841,446 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>149</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>303</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B23" s="1" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>139</v>
       </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>252</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B31" s="6" t="s">
-        <v>118</v>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B36" s="6"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>168</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>237</v>
+      </c>
       <c r="B38" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="6"/>
-      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C43" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>279</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="3"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A59" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B60" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B61" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B62" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>236</v>
+      <c r="B58" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A80C3C-43A9-4202-A5AE-54850B4E9423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF0D25-284A-441D-8027-58BA18833218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="0" windowWidth="11976" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="313">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>そっくり</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>あまり</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1470,6 +1466,25 @@
   <si>
     <t>（多么地）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あまりに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自ら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>みずから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それとも人間自らが創り出したものなのか？</t>
   </si>
 </sst>
 </file>
@@ -1872,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1887,29 +1902,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1917,153 +1932,153 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" t="s">
         <v>188</v>
-      </c>
-      <c r="E15" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -2072,7 +2087,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2083,165 +2098,165 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -2249,38 +2264,38 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2288,28 +2303,28 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2317,112 +2332,112 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="D62" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B64" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D64"/>
       <c r="F64"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D65"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B66" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D66"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D67"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D68"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="D69"/>
     </row>
@@ -2431,53 +2446,53 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B72" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B73" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B75" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3</v>
@@ -2496,54 +2511,54 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B80" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
       <c r="B83" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
@@ -2551,13 +2566,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
@@ -2565,40 +2580,40 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
@@ -2607,216 +2622,230 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="B108" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B110" s="6" t="s">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>223</v>
+      <c r="B112" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="6" t="s">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>288</v>
+        <v>220</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>236</v>
+      <c r="A114" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>238</v>
+      <c r="A115" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>286</v>
+      <c r="B116" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>273</v>
+      <c r="B119" s="1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="2"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2829,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C31" sqref="A23:C31"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C40" sqref="A40:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2841,67 +2870,67 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C8" s="1"/>
     </row>
@@ -2912,34 +2941,34 @@
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -2951,44 +2980,44 @@
     </row>
     <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -2997,45 +3026,45 @@
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -3044,7 +3073,7 @@
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -3053,59 +3082,59 @@
     </row>
     <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.45">
@@ -3115,38 +3144,38 @@
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D41" s="1"/>
     </row>
@@ -3157,41 +3186,41 @@
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>277</v>
       </c>
       <c r="D46" s="1"/>
     </row>
@@ -3201,51 +3230,51 @@
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3253,34 +3282,34 @@
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF0D25-284A-441D-8027-58BA18833218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3C17A-70ED-45E2-8C52-08441A945F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="0" windowWidth="11976" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="314">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1485,6 +1485,10 @@
   </si>
   <si>
     <t>それとも人間自らが創り出したものなのか？</t>
+  </si>
+  <si>
+    <t>ちゃんと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1887,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2834,18 +2838,24 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="2"/>
+      <c r="B122" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" s="2"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3C17A-70ED-45E2-8C52-08441A945F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC055A4-8755-489E-AD21-BDC3E0D4A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="316">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1488,6 +1488,14 @@
   </si>
   <si>
     <t>ちゃんと</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんなに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こんなにも温かい、こんなにも美しい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1891,10 +1899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2044,7 +2052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>106</v>
       </c>
@@ -2055,19 +2063,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>125</v>
@@ -2076,7 +2084,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>306</v>
@@ -2085,777 +2093,789 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
-    </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B61" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B64" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D64"/>
-      <c r="F64"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B65" s="1" t="s">
         <v>228</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65"/>
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B66" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D65"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B67" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D66"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B67" s="1" t="s">
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D67"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B68" s="1" t="s">
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B69" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D68"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D70"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B72" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B73" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B74" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B75" s="1" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B76" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B78" s="1" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B81" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" s="5" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="5"/>
-      <c r="B83" s="1" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="5"/>
+      <c r="B84" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" s="5" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="3"/>
-    </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="3"/>
-    </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" s="2" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="2"/>
-      <c r="B96" s="1" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98" s="2"/>
-    </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>312</v>
-      </c>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>209</v>
+        <v>311</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>210</v>
+        <v>309</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104" s="2"/>
-    </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" s="2"/>
-    </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A110" s="1" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A111" s="6" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C112" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" s="2" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B115" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="8" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>283</v>
+        <v>238</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="2"/>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="2"/>
+      <c r="B123" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="2"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC055A4-8755-489E-AD21-BDC3E0D4A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318954E-A115-459D-B52E-84724C43B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1496,6 +1496,38 @@
   </si>
   <si>
     <t>こんなにも温かい、こんなにも美しい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんざん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>彻底地-不好方面）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一歩一臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いっぽいっぽ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1899,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2107,775 +2139,795 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
-      <c r="B23"/>
+      <c r="B23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>254</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>46</v>
+        <v>204</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B49" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="2" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B65" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D65"/>
-      <c r="F65"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B66" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B67" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D67"/>
+      <c r="F67"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="D68"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B71" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D69"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D70"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="2" t="s">
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B74" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B78" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="2" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B83" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" s="5"/>
-      <c r="B84" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="5"/>
+      <c r="B86" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" s="2"/>
-      <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>20</v>
+        <v>186</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
+        <v>310</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" s="2"/>
+        <v>264</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A110" s="2" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A111" s="1" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B116" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C116" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" s="6" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>283</v>
+      <c r="A119" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>301</v>
+        <v>238</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" s="2"/>
-      <c r="B123" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" s="2"/>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="2"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/副词.xlsx
+++ b/副词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4318954E-A115-459D-B52E-84724C43B93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AD8A3F-04FA-4D47-8A8F-AA40C5B4A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="335">
   <si>
     <t>最も</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1530,12 +1552,68 @@
     <t>いっぽいっぽ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>到处都是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方々</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうぼう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にっこり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>☻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再び</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふたたび</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現に</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げんに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兎も角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ともかく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姑且不说…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1620,6 +1698,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1641,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1651,6 +1735,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1931,17 +2016,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -2221,7 +2308,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
@@ -2232,12 +2319,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>195</v>
       </c>
@@ -2245,7 +2332,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>112</v>
       </c>
@@ -2253,7 +2340,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>139</v>
       </c>
@@ -2261,7 +2348,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>141</v>
       </c>
@@ -2269,7 +2356,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>128</v>
       </c>
@@ -2280,7 +2367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>225</v>
       </c>
@@ -2288,7 +2375,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -2296,7 +2383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>49</v>
@@ -2304,8 +2391,12 @@
       <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="H43" s="1" t="e" cm="1">
+        <f t="array" ref="H43">+B65B43:H52</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2404,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -2324,7 +2415,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>205</v>
       </c>
@@ -2335,599 +2426,641 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B51" s="1" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
-    </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
+      <c r="B58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="2" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67"/>
-      <c r="F67"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D68"/>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B69" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="D69"/>
+      <c r="F69"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="D70"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B73" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="1" t="s">
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="2" t="s">
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B75" s="1" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B77" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B76" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B80" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="2" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B82" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B85" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="5"/>
+      <c r="B88" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>277</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A99" s="2"/>
-      <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>20</v>
+        <v>186</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
+      <c r="B101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>312</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>264</v>
+        <v>310</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" s="2"/>
+        <v>264</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A109" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A110" s="2"/>
-    </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A111" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>273</v>
+      <c r="A114" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>222</v>
+      <c r="A116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="6" t="s">
-        <v>304</v>
+        <v>245</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>287</v>
+        <v>244</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" s="8" t="s">
-        <v>240</v>
+      <c r="A119" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>237</v>
+        <v>220</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>285</v>
+      <c r="A120" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>301</v>
+      <c r="A122" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" s="2"/>
-      <c r="B125" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" s="2" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" s="2"/>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2938,10 +3071,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C3D056-2815-4FDD-A5A3-352AFD56480B}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C40" sqref="A40:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3134,263 +3267,275 @@
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B32" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B37" s="6"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>236</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>236</v>
+      </c>
       <c r="B39" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>168</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B41" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="6"/>
-      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="B43" s="6"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="B46" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" s="7" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="B50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>193</v>
       </c>
     </row>
